--- a/results_cnn_subnetwork_evaluation/pseudoinverse/summary_pseudoinverse.xlsx
+++ b/results_cnn_subnetwork_evaluation/pseudoinverse/summary_pseudoinverse.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pseudoinverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E2214-170C-4B1A-9B7E-13CAECC1F8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B9C959-3772-4A47-B53C-72F72662EEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="720" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Identifier</t>
   </si>
@@ -42,185 +54,57 @@
     <t>f1_score</t>
   </si>
   <si>
-    <t>origin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>channels</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pseudo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0.1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pseudo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0.25</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pseudo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0.5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>recovered_𝜆_0.025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pseudo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>recovered_𝜆_0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pseudo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0.05</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>recovered_𝜆_0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pseudo_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>𝜆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0.025</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>recovered_𝜆_0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recovered_𝜆_0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recovered_𝜆_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -232,15 +116,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria Math"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,57 +241,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +307,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -452,7 +333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>origin</c:v>
+                  <c:v>FN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -483,7 +364,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$36</c:f>
+              <c:f>Sheet1!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -545,7 +426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pseudo_𝜆_0.1</c:v>
+                  <c:v>recovered_𝜆_0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -576,7 +457,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$36</c:f>
+              <c:f>Sheet1!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -638,7 +519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pseudo_𝜆_0.25</c:v>
+                  <c:v>recovered_𝜆_0.25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -678,7 +559,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$36</c:f>
+              <c:f>Sheet1!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -740,7 +621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pseudo_𝜆_0.5</c:v>
+                  <c:v>recovered_𝜆_0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -771,7 +652,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$36</c:f>
+              <c:f>Sheet1!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -833,7 +714,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pseudo_𝜆_1</c:v>
+                  <c:v>recovered_𝜆_1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -873,7 +754,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$36</c:f>
+              <c:f>Sheet1!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1795,13 +1676,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -2095,799 +1976,1451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="6" max="7" width="9" style="7"/>
+    <col min="1" max="1" width="13.75" style="18" customWidth="1"/>
+    <col min="2" max="6" width="9" style="13"/>
+    <col min="7" max="8" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
         <v>88.330550725640663</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="4">
+        <v>5.3943296069260338</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.34634129717308643</v>
       </c>
-      <c r="D2" s="13">
+      <c r="E2" s="4">
         <v>0.88330550725640644</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="4">
         <v>0.87758477915596178</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="5">
         <v>0.5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="13">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7">
         <v>82.257897271314349</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="7">
+        <v>7.3227534651075556</v>
+      </c>
+      <c r="D3" s="7">
         <v>0.51185698125287371</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="7">
         <v>0.8225789727131434</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="7">
         <v>0.81537109633174343</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G3" s="8">
         <v>0.3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="7">
         <v>74.140047347583746</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
+        <v>9.1606784997274051</v>
+      </c>
+      <c r="D4" s="7">
         <v>0.68833494011050789</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="7">
         <v>0.74140047347583737</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="7">
         <v>0.7337347510137876</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G4" s="8">
         <v>0.2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7">
         <v>60.480425147853069</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
+        <v>12.266518088307937</v>
+      </c>
+      <c r="D5" s="7">
         <v>0.92430576085837346</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="7">
         <v>0.60480425147853056</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="7">
         <v>0.59007122286645586</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="8">
         <v>0.1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10">
         <v>51.786549479955127</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
+        <v>13.0754515545438</v>
+      </c>
+      <c r="D6" s="10">
         <v>1.3413545354372931</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="10">
         <v>0.51786549479955135</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="10">
         <v>0.47922167909201002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>87.56200313151497</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.6469316687929103</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.35865484308894952</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.87562003131514976</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.87025711660041738</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7">
+        <v>83.477567568346885</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.7343249903127784</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.49173382384573311</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.834775675683469</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.8241666623047833</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="7">
+        <v>81.659875950484007</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7.5163494293568158</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.54953636980762288</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.81659875950483995</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.80669185982778113</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="7">
+        <v>72.369455329775064</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.7190400716934775</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.70728164823145367</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.72369455329775056</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.71322096613669872</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10">
+        <v>67.95443443859088</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.9188764879136677</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.91897289746685362</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.67954434438590883</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.66070155570697431</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
+        <v>85.985219018618963</v>
+      </c>
+      <c r="C12" s="13">
+        <v>7.5406228115690794</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.39969893808368651</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.85985219018618964</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.85157082470847567</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13">
+        <v>84.045086895215348</v>
+      </c>
+      <c r="C13" s="13">
+        <v>7.5320760713800299</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.43749200347792822</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.8404508689521536</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.83243846984601433</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13">
+        <v>79.933430796690843</v>
+      </c>
+      <c r="C14" s="13">
+        <v>9.0608025498196501</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.57860769261164424</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.79933430796690863</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.78921801646805112</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13">
+        <v>72.45206273410669</v>
+      </c>
+      <c r="C15" s="13">
+        <v>9.4951703551638129</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.67629811012768204</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.72452062734106693</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.71487958564449217</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13">
+        <v>66.815393443426558</v>
+      </c>
+      <c r="C16" s="13">
+        <v>8.9028751832446176</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.93519193777753062</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.66815393443426563</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.64690119892157272</v>
+      </c>
+      <c r="G16" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>86.696955279313272</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.420139222446311</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.37810590401569089</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.86696955279313259</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.86043201411957992</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="7">
+        <v>84.124781932946362</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7.3458412505151633</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.47026074005257518</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.8412478193294638</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.83508823212250904</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="7">
+        <v>78.873081370369405</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9.3707715119399051</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.60377383271262108</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.78873081370369424</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.77972148934894336</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="7">
+        <v>71.458345948782707</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9.2807816332802879</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.72909642067883385</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.7145834594878272</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.7037468188537408</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10">
+        <v>65.589944549693342</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9.982370807241006</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.083186456049789</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.65589944549693324</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.63425281089242846</v>
+      </c>
+      <c r="G21" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>87.142581971585699</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.4539989059837115</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.36858637346877099</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.87142581971585698</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.86375839023051493</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="7">
+        <v>81.848914494646735</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7.4321325209929725</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.51797187688996316</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.81848914494646718</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.81016668141277404</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="7">
+        <v>74.035582776090905</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8.9514044011413514</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.74714644920519069</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.74035582776090925</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.72423133133842854</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="7">
+        <v>65.288771240812352</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10.234975524558115</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.86024361975232333</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.65288771240812349</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.63703438719509919</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10">
+        <v>56.634371116243798</v>
+      </c>
+      <c r="C26" s="10">
+        <v>13.295727352076804</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1.417953700124053</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.56634371116243787</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.5284625890853154</v>
+      </c>
+      <c r="G26" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19">
-        <v>87.56200313151497</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.35865484308894952</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0.87562003131514976</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.87025711660041738</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="B27" s="4">
+        <v>88.344616591262309</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.8687063654075331</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.34755723247298692</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.88344616591262337</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.87844029761193609</v>
+      </c>
+      <c r="G27" s="5">
         <v>0.5</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H27" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19">
-        <v>83.477567568346885</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.49173382384573311</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.834775675683469</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.8241666623047833</v>
-      </c>
-      <c r="F8" s="14">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7">
+        <v>81.816849626726864</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8.0513485880124112</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.53423156163527497</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.81816849626726884</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.8107665954374349</v>
+      </c>
+      <c r="G28" s="8">
         <v>0.3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H28" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19">
-        <v>81.659875950484007</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.54953636980762288</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.81659875950483995</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.80669185982778113</v>
-      </c>
-      <c r="F9" s="14">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="7">
+        <v>74.310094954685312</v>
+      </c>
+      <c r="C29" s="7">
+        <v>9.0609983889030055</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.72210920327572659</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.74310094954685324</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.72997391484736351</v>
+      </c>
+      <c r="G29" s="8">
         <v>0.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H29" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19">
-        <v>72.369455329775064</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.70728164823145367</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.72369455329775056</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.71322096613669872</v>
-      </c>
-      <c r="F10" s="14">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="7">
+        <v>67.614010501820943</v>
+      </c>
+      <c r="C30" s="7">
+        <v>9.7043748706348563</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.81556166174734246</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.67614010501820965</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.65945211950577987</v>
+      </c>
+      <c r="G30" s="8">
         <v>0.1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H30" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19">
-        <v>67.95443443859088</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.91897289746685362</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.67954434438590883</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.66070155570697431</v>
-      </c>
-      <c r="F11" s="11">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="10">
+        <v>54.639215448807221</v>
+      </c>
+      <c r="C31" s="10">
+        <v>11.959833344135216</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1.650817616469511</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.54639215448807221</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.49141050270390052</v>
+      </c>
+      <c r="G31" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="H31" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="7">
+        <v>88.341214024342761</v>
+      </c>
+      <c r="C32" s="13">
+        <v>6.1800242855165699</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.34864464431920272</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.88341214024342773</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.87668226406727101</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13">
+        <v>80.913819900402814</v>
+      </c>
+      <c r="C33" s="13">
+        <v>8.2941141710620165</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.55865163240193694</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.80913819900402828</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.80053409604369563</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13">
+        <v>73.342162706136435</v>
+      </c>
+      <c r="C34" s="13">
+        <v>10.112312103839455</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.74094776836343157</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.73342162706136438</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.72022149028602589</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="15">
-        <v>85.985219018618963</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.39969893808368651</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.85985219018618964</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.85157082470847567</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16">
-        <v>84.045086895215348</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.43749200347792822</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.8404508689521536</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.83243846984601433</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17">
-        <v>79.933430796690843</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.57860769261164424</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.79933430796690863</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.78921801646805112</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18">
-        <v>72.45206273410669</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.67629811012768204</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.72452062734106693</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.71487958564449217</v>
-      </c>
-      <c r="F15" s="7">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13">
+        <v>68.587784784758824</v>
+      </c>
+      <c r="C35" s="13">
+        <v>9.2008408152033301</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.79655789855893511</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.68587784784758787</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.67014310471307914</v>
+      </c>
+      <c r="G35" s="14">
         <v>0.1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H35" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19">
-        <v>66.815393443426558</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0.93519193777753062</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.66815393443426563</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0.64690119892157272</v>
-      </c>
-      <c r="F16" s="11">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="10">
+        <v>52.307269094023319</v>
+      </c>
+      <c r="C36" s="13">
+        <v>11.950578173201459</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.778327074281786</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.52307269094023301</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.46770206730962188</v>
+      </c>
+      <c r="G36" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H36" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
-        <v>86.696955279313272</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.37810590401569089</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.86696955279313259</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.86043201411957992</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18">
-        <v>84.124781932946362</v>
-      </c>
-      <c r="C18">
-        <v>0.47026074005257518</v>
-      </c>
-      <c r="D18">
-        <v>0.8412478193294638</v>
-      </c>
-      <c r="E18">
-        <v>0.83508823212250904</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19">
-        <v>78.873081370369405</v>
-      </c>
-      <c r="C19">
-        <v>0.60377383271262108</v>
-      </c>
-      <c r="D19">
-        <v>0.78873081370369424</v>
-      </c>
-      <c r="E19">
-        <v>0.77972148934894336</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20">
-        <v>71.458345948782707</v>
-      </c>
-      <c r="C20">
-        <v>0.72909642067883385</v>
-      </c>
-      <c r="D20">
-        <v>0.7145834594878272</v>
-      </c>
-      <c r="E20">
-        <v>0.7037468188537408</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="4">
-        <v>65.589944549693342</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1.083186456049789</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.65589944549693324</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.63425281089242846</v>
-      </c>
-      <c r="F21" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="5">
-        <v>87.142581971585699</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.36858637346877099</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.87142581971585698</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.86375839023051493</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23">
-        <v>81.848914494646735</v>
-      </c>
-      <c r="C23">
-        <v>0.51797187688996316</v>
-      </c>
-      <c r="D23">
-        <v>0.81848914494646718</v>
-      </c>
-      <c r="E23">
-        <v>0.81016668141277404</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24">
-        <v>74.035582776090905</v>
-      </c>
-      <c r="C24">
-        <v>0.74714644920519069</v>
-      </c>
-      <c r="D24">
-        <v>0.74035582776090925</v>
-      </c>
-      <c r="E24">
-        <v>0.72423133133842854</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25">
-        <v>65.288771240812352</v>
-      </c>
-      <c r="C25">
-        <v>0.86024361975232333</v>
-      </c>
-      <c r="D25">
-        <v>0.65288771240812349</v>
-      </c>
-      <c r="E25">
-        <v>0.63703438719509919</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="4">
-        <v>56.634371116243798</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.417953700124053</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.56634371116243787</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.5284625890853154</v>
-      </c>
-      <c r="F26" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G26" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="5">
-        <v>88.344616591262309</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.34755723247298692</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.88344616591262337</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.87844029761193609</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28">
-        <v>81.816849626726864</v>
-      </c>
-      <c r="C28">
-        <v>0.53423156163527497</v>
-      </c>
-      <c r="D28">
-        <v>0.81816849626726884</v>
-      </c>
-      <c r="E28">
-        <v>0.8107665954374349</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29">
-        <v>74.310094954685312</v>
-      </c>
-      <c r="C29">
-        <v>0.72210920327572659</v>
-      </c>
-      <c r="D29">
-        <v>0.74310094954685324</v>
-      </c>
-      <c r="E29">
-        <v>0.72997391484736351</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G29" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30">
-        <v>67.614010501820943</v>
-      </c>
-      <c r="C30">
-        <v>0.81556166174734246</v>
-      </c>
-      <c r="D30">
-        <v>0.67614010501820965</v>
-      </c>
-      <c r="E30">
-        <v>0.65945211950577987</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="4">
-        <v>54.639215448807221</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.650817616469511</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.54639215448807221</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.49141050270390052</v>
-      </c>
-      <c r="F31" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G31" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="5">
-        <v>88.341214024342761</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.34864464431920272</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.88341214024342773</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.87668226406727101</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33">
-        <v>80.913819900402814</v>
-      </c>
-      <c r="C33">
-        <v>0.55865163240193694</v>
-      </c>
-      <c r="D33">
-        <v>0.80913819900402828</v>
-      </c>
-      <c r="E33">
-        <v>0.80053409604369563</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G33" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34">
-        <v>73.342162706136435</v>
-      </c>
-      <c r="C34">
-        <v>0.74094776836343157</v>
-      </c>
-      <c r="D34">
-        <v>0.73342162706136438</v>
-      </c>
-      <c r="E34">
-        <v>0.72022149028602589</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G34" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35">
-        <v>68.587784784758824</v>
-      </c>
-      <c r="C35">
-        <v>0.79655789855893511</v>
-      </c>
-      <c r="D35">
-        <v>0.68587784784758787</v>
-      </c>
-      <c r="E35">
-        <v>0.67014310471307914</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="4">
-        <v>52.307269094023319</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.778327074281786</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.52307269094023301</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.46770206730962188</v>
-      </c>
-      <c r="F36" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G36" s="12">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A7:A11"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5038384E-5717-458F-9222-2D0ABF222B41}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="18" customWidth="1"/>
+    <col min="2" max="6" width="9" style="13"/>
+    <col min="7" max="8" width="9" style="14"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>88.330550725640663</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.3943296069260338</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.34634129717308643</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.88330550725640644</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.87758477915596178</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7">
+        <v>82.257897271314349</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7.3227534651075556</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.51185698125287371</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.8225789727131434</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.81537109633174343</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="7">
+        <v>74.140047347583746</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9.1606784997274051</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.68833494011050789</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.74140047347583737</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.7337347510137876</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7">
+        <v>60.480425147853069</v>
+      </c>
+      <c r="C5" s="7">
+        <v>12.266518088307937</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.92430576085837346</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.60480425147853056</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.59007122286645586</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10">
+        <v>51.786549479955127</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13.0754515545438</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.3413545354372931</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.51786549479955135</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.47922167909201002</v>
+      </c>
+      <c r="G6" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>86.696955279313272</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.420139222446311</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.37810590401569089</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.86696955279313259</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.86043201411957992</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7">
+        <v>84.124781932946362</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.3458412505151633</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.47026074005257518</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.8412478193294638</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.83508823212250904</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="7">
+        <v>78.873081370369405</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9.3707715119399051</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.60377383271262108</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.78873081370369424</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.77972148934894336</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="7">
+        <v>71.458345948782707</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.2807816332802879</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.72909642067883385</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.7145834594878272</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.7037468188537408</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10">
+        <v>65.589944549693342</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.982370807241006</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.083186456049789</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.65589944549693324</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.63425281089242846</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>87.142581971585699</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.4539989059837115</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.36858637346877099</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.87142581971585698</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.86375839023051493</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="7">
+        <v>81.848914494646735</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7.4321325209929725</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.51797187688996316</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.81848914494646718</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.81016668141277404</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="7">
+        <v>74.035582776090905</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8.9514044011413514</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.74714644920519069</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.74035582776090925</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.72423133133842854</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7">
+        <v>65.288771240812352</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10.234975524558115</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.86024361975232333</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.65288771240812349</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.63703438719509919</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10">
+        <v>56.634371116243798</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13.295727352076804</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.417953700124053</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.56634371116243787</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.5284625890853154</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>88.344616591262309</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.8687063654075331</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.34755723247298692</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.88344616591262337</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.87844029761193609</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="7">
+        <v>81.816849626726864</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8.0513485880124112</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.53423156163527497</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.81816849626726884</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.8107665954374349</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="7">
+        <v>74.310094954685312</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9.0609983889030055</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.72210920327572659</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.74310094954685324</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.72997391484736351</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="7">
+        <v>67.614010501820943</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9.7043748706348563</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.81556166174734246</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.67614010501820965</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.65945211950577987</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10">
+        <v>54.639215448807221</v>
+      </c>
+      <c r="C21" s="10">
+        <v>11.959833344135216</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.650817616469511</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.54639215448807221</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.49141050270390052</v>
+      </c>
+      <c r="G21" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>